--- a/dls_set/control/cycle6/3.xlsx
+++ b/dls_set/control/cycle6/3.xlsx
@@ -209,10 +209,10 @@
         <v>2.4770762920379639</v>
       </c>
       <c r="B13" s="0">
-        <v>0.011003726162016392</v>
+        <v>0.027509316802024841</v>
       </c>
       <c r="C13" s="0">
-        <v>0.024605080485343933</v>
+        <v>0.038904048502445221</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>2.8480358123779297</v>
       </c>
       <c r="B14" s="0">
-        <v>0.10597109794616699</v>
+        <v>0.12835006415843964</v>
       </c>
       <c r="C14" s="0">
-        <v>0.14522349834442139</v>
+        <v>0.18151441216468811</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>3.2745490074157715</v>
       </c>
       <c r="B15" s="0">
-        <v>0.34225764870643616</v>
+        <v>0.29355588555336</v>
       </c>
       <c r="C15" s="0">
-        <v>0.3923831582069397</v>
+        <v>0.41515073180198669</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>3.7649359703063965</v>
       </c>
       <c r="B16" s="0">
-        <v>0.84184420108795166</v>
+        <v>0.48323655128479004</v>
       </c>
       <c r="C16" s="0">
-        <v>0.62007635831832886</v>
+        <v>0.6833997368812561</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>4.3287615776062012</v>
       </c>
       <c r="B17" s="0">
-        <v>1.6240261793136597</v>
+        <v>0.97035729885101318</v>
       </c>
       <c r="C17" s="0">
-        <v>0.70199912786483765</v>
+        <v>0.46429526805877686</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>4.9770236015319824</v>
       </c>
       <c r="B18" s="0">
-        <v>2.4426183700561523</v>
+        <v>1.62506902217865</v>
       </c>
       <c r="C18" s="0">
-        <v>0.75535428524017334</v>
+        <v>0.16536343097686768</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>5.7223672866821289</v>
       </c>
       <c r="B19" s="0">
-        <v>2.9866936206817627</v>
+        <v>2.1426148414611816</v>
       </c>
       <c r="C19" s="0">
-        <v>0.88363468647003174</v>
+        <v>0.81972277164459229</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>6.57933235168457</v>
       </c>
       <c r="B20" s="0">
-        <v>3.046043872833252</v>
+        <v>2.2663326263427734</v>
       </c>
       <c r="C20" s="0">
-        <v>0.97637510299682617</v>
+        <v>1.110451340675354</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,10 @@
         <v>7.5646333694458008</v>
       </c>
       <c r="B21" s="0">
-        <v>2.60597562789917</v>
+        <v>1.932188868522644</v>
       </c>
       <c r="C21" s="0">
-        <v>0.97557485103607178</v>
+        <v>0.86573046445846558</v>
       </c>
     </row>
     <row r="22">
@@ -308,10 +308,10 @@
         <v>8.6974897384643555</v>
       </c>
       <c r="B22" s="0">
-        <v>1.858607292175293</v>
+        <v>1.3124734163284302</v>
       </c>
       <c r="C22" s="0">
-        <v>0.94308376312255859</v>
+        <v>0.22443512082099915</v>
       </c>
     </row>
     <row r="23">
@@ -319,10 +319,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>1.1220742464065552</v>
+        <v>0.74116766452789307</v>
       </c>
       <c r="C23" s="0">
-        <v>0.85317760705947876</v>
+        <v>0.42936956882476807</v>
       </c>
     </row>
     <row r="24">
@@ -330,10 +330,10 @@
         <v>11.497570037841797</v>
       </c>
       <c r="B24" s="0">
-        <v>0.66385555267333984</v>
+        <v>0.50957530736923218</v>
       </c>
       <c r="C24" s="0">
-        <v>0.60878449678421021</v>
+        <v>0.72064834833145142</v>
       </c>
     </row>
     <row r="25">
@@ -341,10 +341,10 @@
         <v>13.21941089630127</v>
       </c>
       <c r="B25" s="0">
-        <v>0.4294579029083252</v>
+        <v>0.52736860513687134</v>
       </c>
       <c r="C25" s="0">
-        <v>0.47327810525894165</v>
+        <v>0.74581176042556763</v>
       </c>
     </row>
     <row r="26">
@@ -352,10 +352,10 @@
         <v>15.199110984802246</v>
       </c>
       <c r="B26" s="0">
-        <v>0.32140469551086426</v>
+        <v>0.54398411512374878</v>
       </c>
       <c r="C26" s="0">
-        <v>0.48388746380805969</v>
+        <v>0.76930969953536987</v>
       </c>
     </row>
     <row r="27">
@@ -363,10 +363,10 @@
         <v>17.475282669067383</v>
       </c>
       <c r="B27" s="0">
-        <v>0.28247550129890442</v>
+        <v>0.52024203538894653</v>
       </c>
       <c r="C27" s="0">
-        <v>0.45330724120140076</v>
+        <v>0.73573338985443115</v>
       </c>
     </row>
     <row r="28">
@@ -374,10 +374,10 @@
         <v>20.092329025268555</v>
       </c>
       <c r="B28" s="0">
-        <v>0.22952692210674286</v>
+        <v>0.42965078353881836</v>
       </c>
       <c r="C28" s="0">
-        <v>0.37353783845901489</v>
+        <v>0.607617974281311</v>
       </c>
     </row>
     <row r="29">
@@ -385,10 +385,10 @@
         <v>23.101297378540039</v>
       </c>
       <c r="B29" s="0">
-        <v>0.15550811588764191</v>
+        <v>0.27816802263259888</v>
       </c>
       <c r="C29" s="0">
-        <v>0.24368390440940857</v>
+        <v>0.3933890163898468</v>
       </c>
     </row>
     <row r="30">
@@ -396,10 +396,10 @@
         <v>26.560878753662109</v>
       </c>
       <c r="B30" s="0">
-        <v>0.074244290590286255</v>
+        <v>0.11285752803087234</v>
       </c>
       <c r="C30" s="0">
-        <v>0.10554421693086624</v>
+        <v>0.15960465371608734</v>
       </c>
     </row>
     <row r="31">
@@ -407,10 +407,10 @@
         <v>30.538555145263672</v>
       </c>
       <c r="B31" s="0">
-        <v>0.015702391043305397</v>
+        <v>0.005979481153190136</v>
       </c>
       <c r="C31" s="0">
-        <v>0.028894169256091118</v>
+        <v>0.00845626275986433</v>
       </c>
     </row>
     <row r="32">
@@ -418,10 +418,10 @@
         <v>35.111915588378906</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0022503361105918884</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>0.0050319042056798935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -495,10 +495,10 @@
         <v>93.260330200195313</v>
       </c>
       <c r="B39" s="0">
-        <v>0.015878234058618546</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
-        <v>0.035504814237356186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -506,10 +506,10 @@
         <v>107.22672271728516</v>
       </c>
       <c r="B40" s="0">
-        <v>0.12873044610023499</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0.287850022315979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -517,10 +517,10 @@
         <v>123.28467559814453</v>
       </c>
       <c r="B41" s="0">
-        <v>0.40583866834640503</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>0.65282869338989258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -528,10 +528,10 @@
         <v>141.74742126464844</v>
       </c>
       <c r="B42" s="0">
-        <v>0.7930985689163208</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
-        <v>1.0876642465591431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -539,10 +539,10 @@
         <v>162.97508239746094</v>
       </c>
       <c r="B43" s="0">
-        <v>1.1367369890213013</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>1.4252268075942993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -550,10 +550,10 @@
         <v>187.38174438476563</v>
       </c>
       <c r="B44" s="0">
-        <v>1.272868275642395</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>1.4685559272766113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -561,10 +561,10 @@
         <v>215.44346618652344</v>
       </c>
       <c r="B45" s="0">
-        <v>1.297529935836792</v>
+        <v>0.36665940284729004</v>
       </c>
       <c r="C45" s="0">
-        <v>1.0935136079788208</v>
+        <v>0.51853471994400024</v>
       </c>
     </row>
     <row r="46">
@@ -572,10 +572,10 @@
         <v>247.7076416015625</v>
       </c>
       <c r="B46" s="0">
-        <v>1.5121558904647827</v>
+        <v>1.6046019792556763</v>
       </c>
       <c r="C46" s="0">
-        <v>1.3196479082107544</v>
+        <v>2.2692496776580811</v>
       </c>
     </row>
     <row r="47">
@@ -583,10 +583,10 @@
         <v>284.8035888671875</v>
       </c>
       <c r="B47" s="0">
-        <v>1.9058059453964233</v>
+        <v>3.2143280506134033</v>
       </c>
       <c r="C47" s="0">
-        <v>2.7467257976531982</v>
+        <v>4.5457463264465332</v>
       </c>
     </row>
     <row r="48">
@@ -594,10 +594,10 @@
         <v>327.45492553710938</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2794363498687744</v>
+        <v>4.4125714302062988</v>
       </c>
       <c r="C48" s="0">
-        <v>3.8248977661132813</v>
+        <v>6.2403182983398438</v>
       </c>
     </row>
     <row r="49">
@@ -605,10 +605,10 @@
         <v>376.49356079101563</v>
       </c>
       <c r="B49" s="0">
-        <v>2.5547239780426025</v>
+        <v>5.3093714714050293</v>
       </c>
       <c r="C49" s="0">
-        <v>3.8622572422027588</v>
+        <v>5.59274959564209</v>
       </c>
     </row>
     <row r="50">
@@ -616,10 +616,10 @@
         <v>432.87612915039063</v>
       </c>
       <c r="B50" s="0">
-        <v>2.6226096153259277</v>
+        <v>5.8198337554931641</v>
       </c>
       <c r="C50" s="0">
-        <v>3.2244789600372314</v>
+        <v>2.4632678031921387</v>
       </c>
     </row>
     <row r="51">
@@ -627,10 +627,10 @@
         <v>497.70233154296875</v>
       </c>
       <c r="B51" s="0">
-        <v>2.4982106685638428</v>
+        <v>5.8727316856384277</v>
       </c>
       <c r="C51" s="0">
-        <v>3.2383759021759033</v>
+        <v>1.9025601148605347</v>
       </c>
     </row>
     <row r="52">
@@ -638,10 +638,10 @@
         <v>572.23681640625</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2803754806518555</v>
+        <v>5.5966920852661133</v>
       </c>
       <c r="C52" s="0">
-        <v>4.1534972190856934</v>
+        <v>5.6848325729370117</v>
       </c>
     </row>
     <row r="53">
@@ -649,10 +649,10 @@
         <v>657.9332275390625</v>
       </c>
       <c r="B53" s="0">
-        <v>2.0882768630981445</v>
+        <v>5.2206921577453613</v>
       </c>
       <c r="C53" s="0">
-        <v>4.6695289611816406</v>
+        <v>7.383173942565918</v>
       </c>
     </row>
     <row r="54">
@@ -660,10 +660,10 @@
         <v>756.46337890625</v>
       </c>
       <c r="B54" s="0">
-        <v>1.8928819894790649</v>
+        <v>4.7322049140930176</v>
       </c>
       <c r="C54" s="0">
-        <v>4.2326126098632813</v>
+        <v>6.6923484802246094</v>
       </c>
     </row>
     <row r="55">
@@ -671,10 +671,10 @@
         <v>869.74896240234375</v>
       </c>
       <c r="B55" s="0">
-        <v>1.4176701307296753</v>
+        <v>3.5441751480102539</v>
       </c>
       <c r="C55" s="0">
-        <v>3.17000675201416</v>
+        <v>5.0122208595275879</v>
       </c>
     </row>
     <row r="56">
@@ -682,10 +682,10 @@
         <v>1000</v>
       </c>
       <c r="B56" s="0">
-        <v>0.83265185356140137</v>
+        <v>2.081629753112793</v>
       </c>
       <c r="C56" s="0">
-        <v>1.8618662357330322</v>
+        <v>2.94386887550354</v>
       </c>
     </row>
     <row r="57">
@@ -693,10 +693,10 @@
         <v>1149.7569580078125</v>
       </c>
       <c r="B57" s="0">
-        <v>0.33121868968009949</v>
+        <v>0.82804673910140991</v>
       </c>
       <c r="C57" s="0">
-        <v>0.74062752723693848</v>
+        <v>1.1710349321365356</v>
       </c>
     </row>
     <row r="58">
@@ -704,10 +704,10 @@
         <v>1321.941162109375</v>
       </c>
       <c r="B58" s="0">
-        <v>0.073038667440414429</v>
+        <v>0.12790371477603912</v>
       </c>
       <c r="C58" s="0">
-        <v>0.11261603981256485</v>
+        <v>0.18088318407535553</v>
       </c>
     </row>
     <row r="59">
@@ -715,10 +715,10 @@
         <v>1519.9110107421875</v>
       </c>
       <c r="B59" s="0">
-        <v>0.36458814144134521</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0.81524384021759033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -726,10 +726,10 @@
         <v>1747.5283203125</v>
       </c>
       <c r="B60" s="0">
-        <v>0.98947513103485107</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>2.2125334739685059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -737,10 +737,10 @@
         <v>2009.23291015625</v>
       </c>
       <c r="B61" s="0">
-        <v>1.9178390502929688</v>
+        <v>0.615452766418457</v>
       </c>
       <c r="C61" s="0">
-        <v>3.6395604610443115</v>
+        <v>0.87038165330886841</v>
       </c>
     </row>
     <row r="62">
@@ -748,10 +748,10 @@
         <v>2310.129638671875</v>
       </c>
       <c r="B62" s="0">
-        <v>3.1723566055297852</v>
+        <v>2.5719561576843262</v>
       </c>
       <c r="C62" s="0">
-        <v>4.494779109954834</v>
+        <v>1.7403228282928467</v>
       </c>
     </row>
     <row r="63">
@@ -759,10 +759,10 @@
         <v>2656.087890625</v>
       </c>
       <c r="B63" s="0">
-        <v>4.5633797645568848</v>
+        <v>5.8038134574890137</v>
       </c>
       <c r="C63" s="0">
-        <v>4.7163906097412109</v>
+        <v>1.7852746248245239</v>
       </c>
     </row>
     <row r="64">
@@ -770,10 +770,10 @@
         <v>3053.855712890625</v>
       </c>
       <c r="B64" s="0">
-        <v>5.7569961547851563</v>
+        <v>9.2452163696289063</v>
       </c>
       <c r="C64" s="0">
-        <v>4.8099408149719238</v>
+        <v>1.0302048921585083</v>
       </c>
     </row>
     <row r="65">
@@ -781,10 +781,10 @@
         <v>3511.19189453125</v>
       </c>
       <c r="B65" s="0">
-        <v>6.33603048324585</v>
+        <v>11.554998397827148</v>
       </c>
       <c r="C65" s="0">
-        <v>5.1998491287231445</v>
+        <v>0.082054644823074341</v>
       </c>
     </row>
     <row r="66">
@@ -792,10 +792,10 @@
         <v>4037.017333984375</v>
       </c>
       <c r="B66" s="0">
-        <v>6.0740022659301758</v>
+        <v>11.75188159942627</v>
       </c>
       <c r="C66" s="0">
-        <v>5.4423017501831055</v>
+        <v>1.0337026119232178</v>
       </c>
     </row>
     <row r="67">
@@ -803,10 +803,10 @@
         <v>4641.5888671875</v>
       </c>
       <c r="B67" s="0">
-        <v>5.3082952499389648</v>
+        <v>9.65302562713623</v>
       </c>
       <c r="C67" s="0">
-        <v>4.5281333923339844</v>
+        <v>1.4676423072814941</v>
       </c>
     </row>
     <row r="68">
@@ -814,10 +814,10 @@
         <v>5336.69921875</v>
       </c>
       <c r="B68" s="0">
-        <v>4.7636337280273438</v>
+        <v>6.01956033706665</v>
       </c>
       <c r="C68" s="0">
-        <v>2.7438483238220215</v>
+        <v>1.307201623916626</v>
       </c>
     </row>
     <row r="69">
@@ -825,10 +825,10 @@
         <v>6135.9072265625</v>
       </c>
       <c r="B69" s="0">
-        <v>4.3804192543029785</v>
+        <v>2.3323037624359131</v>
       </c>
       <c r="C69" s="0">
-        <v>4.694817066192627</v>
+        <v>0.75929349660873413</v>
       </c>
     </row>
     <row r="70">
@@ -836,10 +836,10 @@
         <v>7054.80224609375</v>
       </c>
       <c r="B70" s="0">
-        <v>4.2252364158630371</v>
+        <v>0.14618940651416779</v>
       </c>
       <c r="C70" s="0">
-        <v>7.4890179634094238</v>
+        <v>0.20674304664134979</v>
       </c>
     </row>
     <row r="71">
@@ -847,10 +847,10 @@
         <v>8111.30859375</v>
       </c>
       <c r="B71" s="0">
-        <v>4.1608281135559082</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0">
-        <v>8.4291067123413086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -858,10 +858,10 @@
         <v>9326.033203125</v>
       </c>
       <c r="B72" s="0">
-        <v>3.4020099639892578</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0">
-        <v>7.4231281280517578</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
